--- a/ExcelDynamicCase/publish/Application Files/ExcelDynamicCase_1_0_0_2/ExcelDynamicCase.xlsx
+++ b/ExcelDynamicCase/publish/Application Files/ExcelDynamicCase_1_0_0_2/ExcelDynamicCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harry\source\repos\ExcelDynamicCase\ExcelDynamicCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D919CDF9-8E72-4F10-8F1E-AF109E521638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76ED51-DE43-4F57-BDA7-986F8CD6A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15885" activeTab="5" xr2:uid="{A4107E39-ADFC-428B-BEC0-F1C599043212}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15885" activeTab="1" xr2:uid="{A4107E39-ADFC-428B-BEC0-F1C599043212}"/>
   </bookViews>
   <sheets>
     <sheet name="Workings" sheetId="1" r:id="rId1"/>
@@ -671,9 +671,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -688,9 +686,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -715,7 +711,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2">
         <f ca="1">D3-NOW()</f>
-        <v>-9.8514236116898246E-2</v>
+        <v>-0.11988449074124219</v>
       </c>
       <c r="D3" s="2">
         <v>45809.662609606479</v>
@@ -817,8 +813,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1031,7 +1027,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1096,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E74058B-E306-4679-B856-7DEC89A3CDF1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD328C6-D618-41D5-B1FD-694F8ED80473}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>